--- a/medicine/Sexualité et sexologie/Sex_shop/Sex_shop.xlsx
+++ b/medicine/Sexualité et sexologie/Sex_shop/Sex_shop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un sex shop (anglicisme pour « boutique de sexe »), parfois traduit en boutique érotique[1], est un commerce qui vend du matériel pornographique, des accessoires et des services liés à la sexualité.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un sex shop (anglicisme pour « boutique de sexe »), parfois traduit en boutique érotique, est un commerce qui vend du matériel pornographique, des accessoires et des services liés à la sexualité.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biens et services commercialisés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sex shops mettent généralement en vente :
 des sex-toys (godemichets, vibrateurs, vibromasseurs, poupées gonflables, jouets, pénis en gélatine, vaginette, stimulateur clitoridien, plug anal, masturbateur, etc.)
@@ -551,11 +565,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier sex-shop du monde a été ouvert à la Noël 1962 à Flensbourg (frontière germano-danoise) à l'initiative de la célèbre  Beate Uhse[2]. Elle avait le nom de „Fachgeschäft für Ehehygiene“ (magasin spécialisé pour l'hygiène maritale). Plusieurs sex-shops portent encore son nom en Allemagne et il y a même un musée érotique Beate Uhse à gare de Berlin Zoologischer Garten.
-En France, depuis 1970, ils sont interdits d'entrée aux mineurs. Depuis 1973, leurs vitrines doivent être opaques. Depuis la loi de finance du 30 décembre 1986, leurs bénéfices sont surtaxés. Depuis une loi de 1987, ils sont interdits d'installation à moins de cent mètres des établissements scolaires[3]. 
-Autour de 1973, la géographie des sex shops commence à se préciser en France ; elles sont présentes dans les principales villes françaises[4]. À Paris, Pigalle, la rue de la Gaîté et la rue Saint-Denis sont occupées. Les sex-shops deviennent les emblèmes et les producteurs d’une nouvelle définition des quartiers chauds : un espace fortement sexualisé mais différent des quartiers de prostitution traditionnels. Après 1973, la préhistoire des sex-shops est terminée : ce type de boutique n’est plus considéré comme une nouveauté, il fait partie du paysage urbain[réf. nécessaire].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier sex-shop du monde a été ouvert à la Noël 1962 à Flensbourg (frontière germano-danoise) à l'initiative de la célèbre  Beate Uhse. Elle avait le nom de „Fachgeschäft für Ehehygiene“ (magasin spécialisé pour l'hygiène maritale). Plusieurs sex-shops portent encore son nom en Allemagne et il y a même un musée érotique Beate Uhse à gare de Berlin Zoologischer Garten.
+En France, depuis 1970, ils sont interdits d'entrée aux mineurs. Depuis 1973, leurs vitrines doivent être opaques. Depuis la loi de finance du 30 décembre 1986, leurs bénéfices sont surtaxés. Depuis une loi de 1987, ils sont interdits d'installation à moins de cent mètres des établissements scolaires. 
+Autour de 1973, la géographie des sex shops commence à se préciser en France ; elles sont présentes dans les principales villes françaises. À Paris, Pigalle, la rue de la Gaîté et la rue Saint-Denis sont occupées. Les sex-shops deviennent les emblèmes et les producteurs d’une nouvelle définition des quartiers chauds : un espace fortement sexualisé mais différent des quartiers de prostitution traditionnels. Après 1973, la préhistoire des sex-shops est terminée : ce type de boutique n’est plus considéré comme une nouveauté, il fait partie du paysage urbain[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -584,11 +600,13 @@
           <t>Accès et localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux États-Unis, certains États[Lesquels ?] prohibent les sex shops ou les types d'accessoires que l'on y vend pour des motifs de « moralité ». 
 L’Alabama interdit l’achat ou la vente d’accessoire érotique avec l'"Anti-Obscenity Enforcement Act (en)". Cependant il est tout de même autorisé d’en posséder. 
-Au Texas, une personne commet une infraction si elle fait la promotion ou possède tout matériel ou dispositif "obscène" et condamne judiciairement celui qui en possède plus de six[5] au travers du "Texas obscenity statute (en)". 
+Au Texas, une personne commet une infraction si elle fait la promotion ou possède tout matériel ou dispositif "obscène" et condamne judiciairement celui qui en possède plus de six au travers du "Texas obscenity statute (en)". 
 Dans d'autres pays, comme la France, les sex shops sont légaux ; leur accès est réservé aux personnes majeures.
 Il existe par ailleurs des sex shops vendant par correspondance (et envoyant leurs produits sous « pli discret »).
 Depuis le développement du Web, la vente de ces produits se fait maintenant essentiellement sur Internet. Le terme sex shop en ligne, ou sex shop online, est alors utilisé.
@@ -621,7 +639,9 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sex-shop de Claude Berri</t>
         </is>
